--- a/medicine/Sexualité et sexologie/If_You_Love_Me_/If_You_Love_Me_.xlsx
+++ b/medicine/Sexualité et sexologie/If_You_Love_Me_/If_You_Love_Me_.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">If You Love Me… (The Little Death) est une comédie australienne écrite et réalisée par Josh Lawson, sortie en 2014.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fantasmes, plus ou moins corsés, de cinq couples vivant dans un quartier de Sydney.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : The Little Death
 Titre français : If You Love Me…
@@ -590,7 +606,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Bojana Novakovic (VF : Marlène Goulard) : Maeve
@@ -605,7 +623,7 @@
 Kate Box (VF : Chloé Lambert) : Rowena
 Alan Dukes (VF : Luc-Antoine Diquéro) : Phil
 Genevieve Hegney (VF : Laure Berend-Sagols) : Sonya
-Source et légende : version française (VF) sur le site d’AlterEgo (la société de doublage[1])</t>
+Source et légende : version française (VF) sur le site d’AlterEgo (la société de doublage)</t>
         </is>
       </c>
     </row>
@@ -633,7 +651,9 @@
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">If You Love Me… a obtenu le prix du meilleur film de la sélection Open Horizons au Festival international du film de Thessalonique 2014.
 </t>
@@ -664,7 +684,9 @@
           <t>Remake</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2016, le film a fait l'objet d'un remake espagnol sous le titre Kiki, l'amour en fête.
 </t>
